--- a/ResultadoEleicoesDistritos/FARO_VILA REAL DE SANTO ANTÓNIO.xlsx
+++ b/ResultadoEleicoesDistritos/FARO_VILA REAL DE SANTO ANTÓNIO.xlsx
@@ -597,64 +597,64 @@
         <v>5064</v>
       </c>
       <c r="H2" t="n">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="I2" t="n">
-        <v>472</v>
+        <v>488</v>
       </c>
       <c r="J2" t="n">
-        <v>2098</v>
+        <v>2134</v>
       </c>
       <c r="K2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L2" t="n">
-        <v>545</v>
+        <v>563</v>
       </c>
       <c r="M2" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="N2" t="n">
-        <v>365</v>
+        <v>340</v>
       </c>
       <c r="O2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="Q2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R2" t="n">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="S2" t="n">
-        <v>264</v>
+        <v>236</v>
       </c>
       <c r="T2" t="n">
-        <v>342</v>
+        <v>386</v>
       </c>
       <c r="U2" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="V2" t="n">
-        <v>3274</v>
+        <v>3227</v>
       </c>
       <c r="W2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>3263</v>
+        <v>3218</v>
       </c>
       <c r="Y2" t="n">
         <v>2</v>
       </c>
       <c r="Z2" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AA2" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
